--- a/docs/bake-off-2-data.xlsx
+++ b/docs/bake-off-2-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ac43ffe3be83d86/Ambiente de Trabalho/Euzinha/Estudozin/IPM/target-pick/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\91\Git\target-pick\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F07FFE5-145B-40F1-9CA5-6D989F5CB334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE2EAA8-F9F7-4DA8-8834-95A174E88B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{50F8570B-847E-491B-9860-E12A8E7D32A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{50F8570B-847E-491B-9860-E12A8E7D32A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Reaction time</t>
   </si>
@@ -108,18 +106,15 @@
   </si>
   <si>
     <t>Accuracy</t>
-  </si>
-  <si>
-    <t>91.67</t>
-  </si>
-  <si>
-    <t>83.33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,16 +169,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -196,8 +258,30 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3291A882-2AFC-48C2-9048-A2DF5159E205}" name="Table1" displayName="Table1" ref="F3:G23" totalsRowShown="0" headerRowDxfId="7" dataDxfId="3">
+  <autoFilter ref="F3:G23" xr:uid="{3291A882-2AFC-48C2-9048-A2DF5159E205}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EC75DDC5-D053-4FB1-8B74-E9692B2CE7DC}" name="Test 1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{57A87D63-D94A-4DB1-BCC4-FA90AF87AD2C}" name="Test 2" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7462F695-5683-4264-912D-39D362F4F263}" name="Table2" displayName="Table2" ref="B3:C23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
+  <autoFilter ref="B3:C23" xr:uid="{7462F695-5683-4264-912D-39D362F4F263}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{AD10BD13-12BE-4559-BD5A-791FD8AB24DB}" name="Test 1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{166459C7-E53D-4426-86D4-BE5AB15AFB8F}" name="Test 2" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -493,245 +577,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C71A269-DE5A-4D91-A2F4-751A663975B0}">
-  <dimension ref="B3:C51"/>
+  <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C4" s="5"/>
+      <c r="F4" s="4">
+        <v>91.67</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C5" s="5"/>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C6" s="5"/>
+      <c r="F6" s="4">
+        <v>91.67</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C7" s="5"/>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C8" s="5"/>
+      <c r="F8" s="4">
+        <v>91.67</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C9" s="5"/>
+      <c r="F9" s="4">
+        <v>100</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C10" s="5"/>
+      <c r="F10" s="4">
+        <v>100</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C11" s="5"/>
+      <c r="F11" s="4">
+        <v>83.33</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C12" s="5"/>
+      <c r="F12" s="4">
+        <v>100</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C13" s="5"/>
+      <c r="F13" s="4">
+        <v>91.67</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="C14" s="5"/>
+      <c r="F14" s="4">
+        <v>100</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C15" s="5"/>
+      <c r="F15" s="4">
+        <v>100</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C16" s="5"/>
+      <c r="F16" s="4">
+        <v>100</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C17" s="5"/>
+      <c r="F17" s="4">
+        <v>100</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="C18" s="5"/>
+      <c r="F18" s="4">
+        <v>100</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="C19" s="5"/>
+      <c r="F19" s="4">
+        <v>100</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C20" s="5"/>
+      <c r="F20" s="4">
+        <v>100</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C21" s="5"/>
+      <c r="F21" s="4">
+        <v>100</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="C22" s="5"/>
+      <c r="F22" s="4">
+        <v>100</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="5"/>
+      <c r="F23" s="4">
+        <v>100</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="29" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/docs/bake-off-2-data.xlsx
+++ b/docs/bake-off-2-data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\91\Git\target-pick\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE2EAA8-F9F7-4DA8-8834-95A174E88B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C40F2D1-49D1-415C-B4CA-0DC67D4C1E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{50F8570B-847E-491B-9860-E12A8E7D32A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tempo de reacção" sheetId="1" r:id="rId1"/>
+    <sheet name="Precisão" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,88 +35,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
-    <t>Reaction time</t>
+    <t>Média</t>
   </si>
   <si>
-    <t>Test 2</t>
+    <t>Desvio padrão</t>
   </si>
   <si>
-    <t>Test 1</t>
+    <t>Teste 1</t>
   </si>
   <si>
-    <t>7.824</t>
+    <t>Teste 2</t>
   </si>
   <si>
-    <t>10.139</t>
+    <t>Tempo de reacção</t>
   </si>
   <si>
-    <t>15.895</t>
+    <t>Estatística</t>
   </si>
   <si>
-    <t>11.704</t>
+    <t>Alfa</t>
   </si>
   <si>
-    <t>16.575</t>
+    <t>Confiança</t>
   </si>
   <si>
-    <t>11.743</t>
+    <t>Intervalo de confiança</t>
   </si>
   <si>
-    <t>8.738</t>
+    <t>Tamanho da amostra</t>
   </si>
   <si>
-    <t>8.361</t>
+    <t>Teste T</t>
   </si>
   <si>
-    <t>8.578</t>
+    <t>Precisão</t>
   </si>
   <si>
-    <t>10.368</t>
+    <t>Há uma diferença significativa entre os resultados de ambos os testes?</t>
   </si>
   <si>
-    <t>10.064</t>
-  </si>
-  <si>
-    <t>7.268</t>
-  </si>
-  <si>
-    <t>14.538</t>
-  </si>
-  <si>
-    <t>11.362</t>
-  </si>
-  <si>
-    <t>14.994</t>
-  </si>
-  <si>
-    <t>11.076</t>
-  </si>
-  <si>
-    <t>17.581</t>
-  </si>
-  <si>
-    <t>12.432</t>
-  </si>
-  <si>
-    <t>11.095</t>
-  </si>
-  <si>
-    <t>9.840</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
+    <t>Teste T                 p =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +120,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,33 +156,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -226,6 +244,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -244,6 +279,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -258,25 +298,1014 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tempo de reacção'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teste 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tempo de reacção'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.8239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.704000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3610000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5779999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.362</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.076000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5195-4B80-A75F-2D840758AAB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tempo de reacção'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teste 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tempo de reacção'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.7869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3179999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5910000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5195-4B80-A75F-2D840758AAB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="591152447"/>
+        <c:axId val="591153695"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="591152447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591153695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="591153695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591152447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6B486F-13A6-4D9D-BCBC-DBD3B1A6C25C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3291A882-2AFC-48C2-9048-A2DF5159E205}" name="Table1" displayName="Table1" ref="F3:G23" totalsRowShown="0" headerRowDxfId="7" dataDxfId="3">
-  <autoFilter ref="F3:G23" xr:uid="{3291A882-2AFC-48C2-9048-A2DF5159E205}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7462F695-5683-4264-912D-39D362F4F263}" name="Tempo" displayName="Tempo" ref="B3:C13" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B3:C13" xr:uid="{7462F695-5683-4264-912D-39D362F4F263}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EC75DDC5-D053-4FB1-8B74-E9692B2CE7DC}" name="Test 1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{57A87D63-D94A-4DB1-BCC4-FA90AF87AD2C}" name="Test 2" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{AD10BD13-12BE-4559-BD5A-791FD8AB24DB}" name="Teste 1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{166459C7-E53D-4426-86D4-BE5AB15AFB8F}" name="Teste 2" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB57CA3C-A860-4C5A-8B63-C66DBAE94D13}" name="Table3" displayName="Table3" ref="E3:F11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F223EA2B-06C0-462A-88A0-2266BEC7E4D7}" name="Column1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{EA9CF19E-CD26-49EF-AB3E-8B296E64AFB7}" name="Column2" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3291A882-2AFC-48C2-9048-A2DF5159E205}" name="Precisão" displayName="Precisão" ref="B3:C23" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B3:C23" xr:uid="{3291A882-2AFC-48C2-9048-A2DF5159E205}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EC75DDC5-D053-4FB1-8B74-E9692B2CE7DC}" name="Teste 1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{57A87D63-D94A-4DB1-BCC4-FA90AF87AD2C}" name="Teste 2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7462F695-5683-4264-912D-39D362F4F263}" name="Table2" displayName="Table2" ref="B3:C23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
-  <autoFilter ref="B3:C23" xr:uid="{7462F695-5683-4264-912D-39D362F4F263}"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E84B079A-8306-454D-8CCC-66FA20CC48E0}" name="Table35" displayName="Table35" ref="E3:F11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AD10BD13-12BE-4559-BD5A-791FD8AB24DB}" name="Test 1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{166459C7-E53D-4426-86D4-BE5AB15AFB8F}" name="Test 2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4AD9AF77-E2E3-455F-909A-6CBD9FC0043A}" name="Column1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{DD5AE1E9-3086-4A8E-9847-AF08878211F6}" name="Column2" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -577,249 +1606,399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C71A269-DE5A-4D91-A2F4-751A663975B0}">
-  <dimension ref="B1:G29"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="3" width="14.28515625" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9">
+        <f>COUNT(Tempo[Teste 1])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>7.8239999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.7869999999999999</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="F4" s="7">
+        <f>AVERAGE(Tempo[Teste 1],Tempo[Teste 2])</f>
+        <v>6.9503000000000013</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>11.704000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.1989999999999998</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <f>_xlfn.STDEV.P(Tempo[Teste 1],Tempo[Teste 2])</f>
+        <v>3.3489245303529862</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>11.743</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.4809999999999999</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>8.3610000000000007</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.6760000000000002</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7">
+        <f>CONFIDENCE(F6,F5,F3)</f>
+        <v>2.0756467874756672</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>8.5779999999999994</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f>ROUND((F4-F7),3)&amp;" a "&amp;ROUND((F4+F7),3)</f>
+        <v>4,875 a 9,026</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>7.2679999999999998</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.4079999999999999</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>11.362</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.6539999999999999</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>11.076000000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.8949999999999996</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="12">
+        <f>_xlfn.T.TEST(Tempo[Teste 1],Tempo[Teste 2],2,3)</f>
+        <v>7.858939044297413E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>12.432</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4.3179999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>9.84</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.5910000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489ABF91-456F-433A-AA24-3424E5E1F67F}">
+  <dimension ref="B2:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9">
+        <f>COUNT(Precisão[Teste 1])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>91.67</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <f>AVERAGE(Precisão[Teste 1],Precisão[Teste 2])</f>
+        <v>97.500500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="F4" s="4">
+      <c r="F5" s="7">
+        <f>_xlfn.STDEV.P(Precisão[Teste 1],Precisão[Teste 2])</f>
+        <v>4.639474620040505</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>91.67</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="F5" s="4">
+      <c r="C6" s="1"/>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>100</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="F6" s="4">
+      <c r="C7" s="1"/>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7">
+        <f>CONFIDENCE(F6,F5,F3)</f>
+        <v>2.0333020404492363</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>91.67</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="F7" s="4">
+      <c r="C8" s="1"/>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f>ROUND((F4-F7),3)&amp;" a "&amp;ROUND((F4+F7),3)</f>
+        <v>95,467 a 99,534</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>100</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="F8" s="4">
+      <c r="C9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>83.33</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="10" t="e">
+        <f>"p = "&amp;_xlfn.T.TEST(Precisão[Teste 1],Precisão[Teste 2],2,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>91.67</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="F9" s="4">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>100</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="F10" s="4">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
         <v>100</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="F11" s="4">
-        <v>83.33</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="F12" s="4">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
         <v>100</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="F13" s="4">
-        <v>91.67</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="F14" s="4">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
         <v>100</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="F15" s="4">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
         <v>100</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="F16" s="4">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
         <v>100</v>
       </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="F17" s="4">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
         <v>100</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="F18" s="4">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
         <v>100</v>
       </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="F19" s="4">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
         <v>100</v>
       </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="F20" s="4">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
         <v>100</v>
       </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="F21" s="4">
-        <v>100</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="F22" s="4">
-        <v>100</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="F23" s="4">
-        <v>100</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="29" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/docs/bake-off-2-data.xlsx
+++ b/docs/bake-off-2-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\91\Git\target-pick\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C40F2D1-49D1-415C-B4CA-0DC67D4C1E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E0186E-487F-41FF-BCC3-E5C749B43652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{50F8570B-847E-491B-9860-E12A8E7D32A3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Média</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Há uma diferença significativa entre os resultados de ambos os testes?</t>
-  </si>
-  <si>
-    <t>Teste T                 p =</t>
   </si>
 </sst>
 </file>
@@ -200,10 +197,6 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -263,6 +256,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -280,10 +281,6 @@
         <scheme val="minor"/>
       </font>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1268,42 +1265,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7462F695-5683-4264-912D-39D362F4F263}" name="Tempo" displayName="Tempo" ref="B3:C13" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7462F695-5683-4264-912D-39D362F4F263}" name="Tempo" displayName="Tempo" ref="B3:C13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B3:C13" xr:uid="{7462F695-5683-4264-912D-39D362F4F263}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AD10BD13-12BE-4559-BD5A-791FD8AB24DB}" name="Teste 1" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{166459C7-E53D-4426-86D4-BE5AB15AFB8F}" name="Teste 2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AD10BD13-12BE-4559-BD5A-791FD8AB24DB}" name="Teste 1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{166459C7-E53D-4426-86D4-BE5AB15AFB8F}" name="Teste 2" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB57CA3C-A860-4C5A-8B63-C66DBAE94D13}" name="Table3" displayName="Table3" ref="E3:F11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB57CA3C-A860-4C5A-8B63-C66DBAE94D13}" name="Table3" displayName="Table3" ref="E3:F11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F223EA2B-06C0-462A-88A0-2266BEC7E4D7}" name="Column1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{EA9CF19E-CD26-49EF-AB3E-8B296E64AFB7}" name="Column2" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{F223EA2B-06C0-462A-88A0-2266BEC7E4D7}" name="Column1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{EA9CF19E-CD26-49EF-AB3E-8B296E64AFB7}" name="Column2" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3291A882-2AFC-48C2-9048-A2DF5159E205}" name="Precisão" displayName="Precisão" ref="B3:C23" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3291A882-2AFC-48C2-9048-A2DF5159E205}" name="Precisão" displayName="Precisão" ref="B3:C23" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B3:C23" xr:uid="{3291A882-2AFC-48C2-9048-A2DF5159E205}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EC75DDC5-D053-4FB1-8B74-E9692B2CE7DC}" name="Teste 1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{57A87D63-D94A-4DB1-BCC4-FA90AF87AD2C}" name="Teste 2" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{EC75DDC5-D053-4FB1-8B74-E9692B2CE7DC}" name="Teste 1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{57A87D63-D94A-4DB1-BCC4-FA90AF87AD2C}" name="Teste 2" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E84B079A-8306-454D-8CCC-66FA20CC48E0}" name="Table35" displayName="Table35" ref="E3:F11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E84B079A-8306-454D-8CCC-66FA20CC48E0}" name="Table35" displayName="Table35" ref="E3:F11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4AD9AF77-E2E3-455F-909A-6CBD9FC0043A}" name="Column1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{DD5AE1E9-3086-4A8E-9847-AF08878211F6}" name="Column2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4AD9AF77-E2E3-455F-909A-6CBD9FC0043A}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{DD5AE1E9-3086-4A8E-9847-AF08878211F6}" name="Column2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1609,7 +1606,7 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,11 +1746,11 @@
         <v>4.8949999999999996</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="12">
-        <f>_xlfn.T.TEST(Tempo[Teste 1],Tempo[Teste 2],2,3)</f>
-        <v>7.858939044297413E-7</v>
+        <v>10</v>
+      </c>
+      <c r="F11" s="12" t="str">
+        <f>"p = "&amp;ROUND(_xlfn.T.TEST(Tempo[Teste 1],Tempo[Teste 2],2,3),15)</f>
+        <v>p = 0,000000785893904</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -1918,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="10" t="e">
-        <f>"p = "&amp;_xlfn.T.TEST(Precisão[Teste 1],Precisão[Teste 2],2,1)</f>
+        <f>"p = "&amp;ROUND(_xlfn.T.TEST(Precisão[Teste 1],Precisão[Teste 2],2,3),15)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
